--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/Grid UI/Options for RO.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/Grid UI/Options for RO.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\Grid UI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Options RO" sheetId="1" r:id="rId1"/>
@@ -17,23 +12,23 @@
     <sheet name="Current RO" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="33">
   <si>
     <t>Assets</t>
   </si>
@@ -125,15 +120,24 @@
   <si>
     <t>Transaction</t>
   </si>
+  <si>
+    <t>Liabilites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>Common Stock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,8 +232,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,12 +267,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,8 +294,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="64">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -577,7 +599,7 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -590,7 +612,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -605,7 +627,7 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -620,7 +642,7 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -631,7 +653,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -644,7 +666,7 @@
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -1022,8 +1044,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="142">
+  <cellStyleXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1166,8 +1325,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1220,112 +1405,103 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="16" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="17" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="6" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="16" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="17" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="25" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="26" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="7" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="25" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="26" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="8" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,149 +1541,26 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="37" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="31" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="31" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="46" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="47" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="47" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="48" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="48" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="49" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="49" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="51" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="51" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="6" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="15" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="40" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="41" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="42" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="43" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="8" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1550,28 +1603,244 @@
     <xf numFmtId="37" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="37" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="64" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="65" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="6" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="15" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="40" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="41" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="42" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="44" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="50" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="7" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="71" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="73" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="74" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="75" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="76" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="67" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="68" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="142">
+  <cellStyles count="168">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1642,6 +1911,19 @@
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1712,6 +1994,19 @@
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="135"/>
   </cellStyles>
@@ -1719,6 +2014,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFE6E6E6"/>
+      <color rgb="FFDCDCDC"/>
+      <color rgb="FFCCE3F2"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
@@ -2059,50 +2357,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="V58" sqref="V58"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B1" s="103"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80"/>
-      <c r="C2" s="83" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B2" s="103"/>
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2112,24 +2410,24 @@
       <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="9"/>
       <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" customHeight="1">
+      <c r="B3" s="103"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -2166,169 +2464,169 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="24.75" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="98">
         <v>5700</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="22">
+      <c r="E4" s="98">
         <v>2100</v>
       </c>
       <c r="F4" s="20"/>
-      <c r="G4" s="22">
+      <c r="G4" s="98">
         <v>500</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="22">
+      <c r="I4" s="98">
         <v>4000</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="22">
+      <c r="K4" s="98">
         <v>0</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="22">
+      <c r="M4" s="98">
         <v>7300</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="22">
+      <c r="O4" s="98">
         <v>-2800</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="22">
+      <c r="Q4" s="98">
         <v>-1200</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="24.75" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="98"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="22">
+      <c r="K5" s="98">
         <v>7300</v>
       </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="22">
+      <c r="M5" s="98">
         <v>-7300</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="22"/>
+      <c r="O5" s="98"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="98"/>
+    </row>
+    <row r="6" spans="1:17" ht="24.75" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="22">
+      <c r="K6" s="98">
         <v>-4000</v>
       </c>
       <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="98"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="22">
+      <c r="O6" s="98">
         <v>2800</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="22">
+      <c r="Q6" s="98">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="24.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="98">
         <f>SUM(C4,C5,C6)</f>
         <v>5700</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="22">
+      <c r="E7" s="98">
         <f>SUM(E4,E5,E6)</f>
         <v>2100</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="22">
+      <c r="G7" s="98">
         <f>SUM(G4,G5,G6)</f>
         <v>500</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="22">
+      <c r="I7" s="98">
         <f>SUM(I4,I5,I6)</f>
         <v>4000</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="22">
+      <c r="K7" s="98">
         <f>SUM(K4,K5,K6)</f>
         <v>3300</v>
       </c>
       <c r="L7" s="20"/>
-      <c r="M7" s="22">
+      <c r="M7" s="98">
         <f>SUM(M4,M5,M6)</f>
         <v>0</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="22">
+      <c r="O7" s="98">
         <f>SUM(O4,O5,O6)</f>
         <v>0</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="22">
+      <c r="Q7" s="98">
         <f>SUM(Q4,Q5,Q6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
+    <row r="10" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="82" t="s">
+      <c r="M10" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-    </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="83" t="s">
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+    </row>
+    <row r="11" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C11" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
       <c r="F11" s="8" t="s">
         <v>1</v>
       </c>
@@ -2338,23 +2636,23 @@
       <c r="H11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="9"/>
       <c r="M11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="82" t="s">
+      <c r="O11" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-    </row>
-    <row r="12" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+    </row>
+    <row r="12" spans="1:17" ht="40.5" customHeight="1">
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2391,169 +2689,169 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="24.75" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="99">
         <v>5700</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="23">
+      <c r="E13" s="99">
         <v>2100</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="23">
+      <c r="G13" s="99">
         <v>500</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="23">
+      <c r="I13" s="99">
         <v>4000</v>
       </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="23">
+      <c r="K13" s="99">
         <v>0</v>
       </c>
       <c r="L13" s="20"/>
-      <c r="M13" s="23">
+      <c r="M13" s="99">
         <v>7300</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="23">
+      <c r="O13" s="99">
         <v>-2800</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="23">
+      <c r="Q13" s="99">
         <v>-1200</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="24.75" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="99"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="23">
+      <c r="K14" s="99">
         <v>7300</v>
       </c>
       <c r="L14" s="20"/>
-      <c r="M14" s="23">
+      <c r="M14" s="99">
         <v>-7300</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="23"/>
+      <c r="O14" s="99"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="1:17" ht="24.75" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="99"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="23">
+      <c r="K15" s="99">
         <v>-4000</v>
       </c>
       <c r="L15" s="20"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="99"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="23">
+      <c r="O15" s="99">
         <v>2800</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="23">
+      <c r="Q15" s="99">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="24.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="99">
         <f>SUM(C13,C14,C15)</f>
         <v>5700</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="23">
+      <c r="E16" s="99">
         <f>SUM(E13,E14,E15)</f>
         <v>2100</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="G16" s="23">
+      <c r="G16" s="99">
         <f>SUM(G13,G14,G15)</f>
         <v>500</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="23">
+      <c r="I16" s="99">
         <f>SUM(I13,I14,I15)</f>
         <v>4000</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="23">
+      <c r="K16" s="99">
         <f>SUM(K13,K14,K15)</f>
         <v>3300</v>
       </c>
       <c r="L16" s="20"/>
-      <c r="M16" s="23">
+      <c r="M16" s="99">
         <f>SUM(M13,M14,M15)</f>
         <v>0</v>
       </c>
       <c r="N16" s="5"/>
-      <c r="O16" s="23">
+      <c r="O16" s="99">
         <f>SUM(O13,O14,O15)</f>
         <v>0</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="23">
+      <c r="Q16" s="99">
         <f>SUM(Q13,Q14,Q15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+    <row r="19" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="82" t="s">
+      <c r="M19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-    </row>
-    <row r="20" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="83" t="s">
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+    </row>
+    <row r="20" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C20" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="8" t="s">
         <v>1</v>
       </c>
@@ -2563,23 +2861,23 @@
       <c r="H20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="82" t="s">
+      <c r="I20" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
       <c r="L20" s="9"/>
       <c r="M20" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="82" t="s">
+      <c r="O20" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-    </row>
-    <row r="21" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+    </row>
+    <row r="21" spans="1:17" ht="40.5" customHeight="1">
       <c r="C21" s="10" t="s">
         <v>7</v>
       </c>
@@ -2616,171 +2914,171 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24.75" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="97">
         <v>5700</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="24">
+      <c r="E22" s="97">
         <v>2100</v>
       </c>
       <c r="F22" s="20"/>
-      <c r="G22" s="24">
+      <c r="G22" s="97">
         <v>500</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="24">
+      <c r="I22" s="97">
         <v>4000</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="24">
+      <c r="K22" s="97">
         <v>0</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="24">
+      <c r="M22" s="97">
         <v>7300</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="24">
+      <c r="O22" s="97">
         <v>-2800</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="Q22" s="24">
+      <c r="Q22" s="97">
         <v>-1200</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="24.75" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="97"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="24">
+      <c r="K23" s="97">
         <v>7300</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="24">
+      <c r="M23" s="97">
         <v>-7300</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="24"/>
+      <c r="O23" s="97"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="24"/>
-    </row>
-    <row r="24" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="97"/>
+    </row>
+    <row r="24" spans="1:17" ht="24.75" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="97"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="24">
+      <c r="K24" s="97">
         <v>-4000</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="24"/>
+      <c r="M24" s="97"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="24">
+      <c r="O24" s="97">
         <v>2800</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="24">
+      <c r="Q24" s="97">
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="24.75" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="97">
         <f>SUM(C22,C23,C24)</f>
         <v>5700</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="24">
+      <c r="E25" s="97">
         <f>SUM(E22,E23,E24)</f>
         <v>2100</v>
       </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="24">
+      <c r="G25" s="97">
         <f>SUM(G22,G23,G24)</f>
         <v>500</v>
       </c>
       <c r="H25" s="20"/>
-      <c r="I25" s="24">
+      <c r="I25" s="97">
         <f>SUM(I22,I23,I24)</f>
         <v>4000</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="24">
+      <c r="K25" s="97">
         <f>SUM(K22,K23,K24)</f>
         <v>3300</v>
       </c>
       <c r="L25" s="20"/>
-      <c r="M25" s="24">
+      <c r="M25" s="97">
         <f>SUM(M22,M23,M24)</f>
         <v>0</v>
       </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="24">
+      <c r="O25" s="97">
         <f>SUM(O22,O23,O24)</f>
         <v>0</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="24">
+      <c r="Q25" s="97">
         <f>SUM(Q22,Q23,Q24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
+    <row r="30" spans="1:17" ht="16" thickBot="1">
+      <c r="B30" s="103"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="82" t="s">
+      <c r="M30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="80"/>
-      <c r="C31" s="83" t="s">
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickBot="1">
+      <c r="B31" s="103"/>
+      <c r="C31" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
       <c r="F31" s="8" t="s">
         <v>1</v>
       </c>
@@ -2790,24 +3088,24 @@
       <c r="H31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="82" t="s">
+      <c r="I31" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
       <c r="L31" s="9"/>
       <c r="M31" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="82" t="s">
+      <c r="O31" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="80"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+    </row>
+    <row r="32" spans="1:17" ht="28">
+      <c r="B32" s="103"/>
       <c r="C32" s="10" t="s">
         <v>7</v>
       </c>
@@ -2828,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="121" t="s">
+      <c r="K32" s="77" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="14"/>
@@ -2844,171 +3142,171 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="24" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="122">
+      <c r="C33" s="78">
         <v>5700</v>
       </c>
       <c r="D33" s="19"/>
-      <c r="E33" s="123">
+      <c r="E33" s="79">
         <v>2100</v>
       </c>
-      <c r="F33" s="124"/>
-      <c r="G33" s="123">
+      <c r="F33" s="80"/>
+      <c r="G33" s="79">
         <v>500</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="122">
+      <c r="H33" s="80"/>
+      <c r="I33" s="78">
         <v>4000</v>
       </c>
       <c r="J33" s="17"/>
-      <c r="K33" s="122">
+      <c r="K33" s="78">
         <v>0</v>
       </c>
-      <c r="L33" s="124"/>
-      <c r="M33" s="122">
+      <c r="L33" s="80"/>
+      <c r="M33" s="78">
         <v>7300</v>
       </c>
       <c r="N33" s="5"/>
-      <c r="O33" s="122">
+      <c r="O33" s="78">
         <v>-2800</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="122">
+      <c r="Q33" s="78">
         <v>-1200</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="24" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="125"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="125"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="81"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="126">
+      <c r="K34" s="82">
         <v>7300</v>
       </c>
-      <c r="L34" s="124"/>
-      <c r="M34" s="126">
+      <c r="L34" s="80"/>
+      <c r="M34" s="82">
         <v>-7300</v>
       </c>
       <c r="N34" s="5"/>
-      <c r="O34" s="126"/>
+      <c r="O34" s="82"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="126"/>
-    </row>
-    <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="82"/>
+    </row>
+    <row r="35" spans="1:17" ht="24" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="125"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="81"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="126">
+      <c r="K35" s="82">
         <v>-4000</v>
       </c>
-      <c r="L35" s="124"/>
-      <c r="M35" s="126"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="82"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="126">
+      <c r="O35" s="82">
         <v>2800</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="126">
+      <c r="Q35" s="82">
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="24" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="126">
+      <c r="C36" s="82">
         <f>SUM(C33,C34,C35)</f>
         <v>5700</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="126">
+      <c r="E36" s="82">
         <f>SUM(E33,E34,E35)</f>
         <v>2100</v>
       </c>
-      <c r="F36" s="124"/>
-      <c r="G36" s="122">
+      <c r="F36" s="80"/>
+      <c r="G36" s="78">
         <f>SUM(G33,G34,G35)</f>
         <v>500</v>
       </c>
-      <c r="H36" s="124"/>
-      <c r="I36" s="122">
+      <c r="H36" s="80"/>
+      <c r="I36" s="78">
         <f>SUM(I33,I34,I35)</f>
         <v>4000</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="126">
+      <c r="K36" s="82">
         <f>SUM(K33,K34,K35)</f>
         <v>3300</v>
       </c>
-      <c r="L36" s="124"/>
-      <c r="M36" s="126">
+      <c r="L36" s="80"/>
+      <c r="M36" s="82">
         <f>SUM(M33,M34,M35)</f>
         <v>0</v>
       </c>
       <c r="N36" s="5"/>
-      <c r="O36" s="126">
+      <c r="O36" s="82">
         <f>SUM(O33,O34,O35)</f>
         <v>0</v>
       </c>
       <c r="P36" s="6"/>
-      <c r="Q36" s="126">
+      <c r="Q36" s="82">
         <f>SUM(Q33,Q34,Q35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
+    <row r="39" spans="1:17" ht="16" thickBot="1">
+      <c r="B39" s="103"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="82" t="s">
+      <c r="M39" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
-      <c r="C40" s="83" t="s">
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+    </row>
+    <row r="40" spans="1:17" ht="16" thickBot="1">
+      <c r="B40" s="103"/>
+      <c r="C40" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
       <c r="F40" s="8" t="s">
         <v>1</v>
       </c>
@@ -3018,24 +3316,24 @@
       <c r="H40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
       <c r="L40" s="9"/>
       <c r="M40" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="82" t="s">
+      <c r="O40" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-    </row>
-    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+    </row>
+    <row r="41" spans="1:17" ht="28">
+      <c r="B41" s="103"/>
       <c r="C41" s="10" t="s">
         <v>7</v>
       </c>
@@ -3056,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="J41" s="10"/>
-      <c r="K41" s="121" t="s">
+      <c r="K41" s="77" t="s">
         <v>8</v>
       </c>
       <c r="L41" s="14"/>
@@ -3072,150 +3370,150 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="24" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="127">
+      <c r="C42" s="83">
         <v>5700</v>
       </c>
       <c r="D42" s="19"/>
-      <c r="E42" s="127">
+      <c r="E42" s="83">
         <v>2100</v>
       </c>
-      <c r="F42" s="124"/>
-      <c r="G42" s="127">
+      <c r="F42" s="80"/>
+      <c r="G42" s="83">
         <v>500</v>
       </c>
-      <c r="H42" s="124"/>
-      <c r="I42" s="128">
+      <c r="H42" s="80"/>
+      <c r="I42" s="84">
         <v>4000</v>
       </c>
-      <c r="J42" s="129"/>
-      <c r="K42" s="127">
+      <c r="J42" s="85"/>
+      <c r="K42" s="83">
         <v>0</v>
       </c>
-      <c r="L42" s="124"/>
-      <c r="M42" s="127">
+      <c r="L42" s="80"/>
+      <c r="M42" s="83">
         <v>7300</v>
       </c>
       <c r="N42" s="5"/>
-      <c r="O42" s="127">
+      <c r="O42" s="83">
         <v>-2800</v>
       </c>
       <c r="P42" s="6"/>
-      <c r="Q42" s="127">
+      <c r="Q42" s="83">
         <v>-1200</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="24" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="130"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="131"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="130">
+      <c r="E43" s="86"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="86">
         <v>7300</v>
       </c>
-      <c r="L43" s="124"/>
-      <c r="M43" s="130">
+      <c r="L43" s="80"/>
+      <c r="M43" s="86">
         <v>-7300</v>
       </c>
       <c r="N43" s="5"/>
-      <c r="O43" s="130"/>
+      <c r="O43" s="86"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="130"/>
-    </row>
-    <row r="44" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q43" s="86"/>
+    </row>
+    <row r="44" spans="1:17" ht="24" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="130"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="131"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="130">
+      <c r="E44" s="86"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="86">
         <v>-4000</v>
       </c>
-      <c r="L44" s="124"/>
-      <c r="M44" s="130"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="86"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="130">
+      <c r="O44" s="86">
         <v>2800</v>
       </c>
       <c r="P44" s="6"/>
-      <c r="Q44" s="130">
+      <c r="Q44" s="86">
         <v>1200</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="24" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="133">
+      <c r="C45" s="89">
         <f>SUM(C42,C43,C44)</f>
         <v>5700</v>
       </c>
       <c r="D45" s="19"/>
-      <c r="E45" s="133">
+      <c r="E45" s="89">
         <f>SUM(E42,E43,E44)</f>
         <v>2100</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="133">
+      <c r="F45" s="80"/>
+      <c r="G45" s="89">
         <f>SUM(G42,G43,G44)</f>
         <v>500</v>
       </c>
-      <c r="H45" s="124"/>
-      <c r="I45" s="134">
+      <c r="H45" s="80"/>
+      <c r="I45" s="90">
         <f>SUM(I42,I43,I44)</f>
         <v>4000</v>
       </c>
-      <c r="J45" s="129"/>
-      <c r="K45" s="133">
+      <c r="J45" s="85"/>
+      <c r="K45" s="89">
         <f>SUM(K42,K43,K44)</f>
         <v>3300</v>
       </c>
-      <c r="L45" s="124"/>
-      <c r="M45" s="133">
+      <c r="L45" s="80"/>
+      <c r="M45" s="89">
         <f>SUM(M42,M43,M44)</f>
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="O45" s="133">
+      <c r="O45" s="89">
         <f>SUM(O42,O43,O44)</f>
         <v>0</v>
       </c>
       <c r="P45" s="6"/>
-      <c r="Q45" s="133">
+      <c r="Q45" s="89">
         <f>SUM(Q42,Q43,Q44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="83" t="s">
+    <row r="47" spans="1:17" ht="16" thickBot="1">
+      <c r="C47" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
       <c r="F47" s="8" t="s">
         <v>1</v>
       </c>
@@ -3225,23 +3523,23 @@
       <c r="H47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="I47" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
       <c r="L47" s="9"/>
       <c r="M47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="O47" s="82" t="s">
+      <c r="O47" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-    </row>
-    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+    </row>
+    <row r="48" spans="1:17" ht="28">
       <c r="C48" s="10" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3560,7 @@
         <v>11</v>
       </c>
       <c r="J48" s="10"/>
-      <c r="K48" s="121" t="s">
+      <c r="K48" s="77" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="14"/>
@@ -3278,198 +3576,198 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="24" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="135">
+      <c r="C49" s="91">
         <v>5700</v>
       </c>
       <c r="D49" s="19"/>
-      <c r="E49" s="135">
+      <c r="E49" s="91">
         <v>2100</v>
       </c>
-      <c r="F49" s="124"/>
-      <c r="G49" s="135">
+      <c r="F49" s="80"/>
+      <c r="G49" s="91">
         <v>500</v>
       </c>
-      <c r="H49" s="124"/>
-      <c r="I49" s="135">
+      <c r="H49" s="80"/>
+      <c r="I49" s="91">
         <v>4000</v>
       </c>
       <c r="J49" s="17"/>
-      <c r="K49" s="135">
+      <c r="K49" s="91">
         <v>0</v>
       </c>
-      <c r="L49" s="124"/>
-      <c r="M49" s="135">
+      <c r="L49" s="80"/>
+      <c r="M49" s="91">
         <v>7300</v>
       </c>
       <c r="N49" s="5"/>
-      <c r="O49" s="135">
+      <c r="O49" s="91">
         <v>-2800</v>
       </c>
       <c r="P49" s="6"/>
-      <c r="Q49" s="135">
+      <c r="Q49" s="91">
         <v>-1200</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="24" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="135"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="19"/>
-      <c r="E50" s="135"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="135"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="135"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="135">
+      <c r="K50" s="91">
         <v>7300</v>
       </c>
-      <c r="L50" s="124"/>
-      <c r="M50" s="135">
+      <c r="L50" s="80"/>
+      <c r="M50" s="91">
         <v>-7300</v>
       </c>
       <c r="N50" s="5"/>
-      <c r="O50" s="135"/>
+      <c r="O50" s="91"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="135"/>
-    </row>
-    <row r="51" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q50" s="91"/>
+    </row>
+    <row r="51" spans="1:17" ht="24" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="135"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="135"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="91"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="135">
+      <c r="K51" s="91">
         <v>-4000</v>
       </c>
-      <c r="L51" s="124"/>
-      <c r="M51" s="135"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="91"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="135">
+      <c r="O51" s="91">
         <v>2800</v>
       </c>
       <c r="P51" s="6"/>
-      <c r="Q51" s="135">
+      <c r="Q51" s="91">
         <v>1200</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="24" customHeight="1">
       <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="135">
+      <c r="C52" s="91">
         <f>SUM(C49,C50,C51)</f>
         <v>5700</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="135">
+      <c r="E52" s="91">
         <f>SUM(E49,E50,E51)</f>
         <v>2100</v>
       </c>
-      <c r="F52" s="124"/>
-      <c r="G52" s="135">
+      <c r="F52" s="80"/>
+      <c r="G52" s="91">
         <f>SUM(G49,G50,G51)</f>
         <v>500</v>
       </c>
-      <c r="H52" s="124"/>
-      <c r="I52" s="135">
+      <c r="H52" s="80"/>
+      <c r="I52" s="91">
         <f>SUM(I49,I50,I51)</f>
         <v>4000</v>
       </c>
       <c r="J52" s="17"/>
-      <c r="K52" s="135">
+      <c r="K52" s="91">
         <f>SUM(K49,K50,K51)</f>
         <v>3300</v>
       </c>
-      <c r="L52" s="124"/>
-      <c r="M52" s="135">
+      <c r="L52" s="80"/>
+      <c r="M52" s="91">
         <f>SUM(M49,M50,M51)</f>
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
-      <c r="O52" s="135">
+      <c r="O52" s="91">
         <f>SUM(O49,O50,O51)</f>
         <v>0</v>
       </c>
       <c r="P52" s="6"/>
-      <c r="Q52" s="135">
+      <c r="Q52" s="91">
         <f>SUM(Q49,Q50,Q51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="80"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="137"/>
-      <c r="M55" s="138" t="s">
+    <row r="55" spans="1:17" ht="16" thickBot="1">
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="138"/>
-      <c r="O55" s="138"/>
-      <c r="P55" s="138"/>
-      <c r="Q55" s="138"/>
-    </row>
-    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="80"/>
-      <c r="C56" s="139" t="s">
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+    </row>
+    <row r="56" spans="1:17" ht="16" thickBot="1">
+      <c r="B56" s="103"/>
+      <c r="C56" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="140" t="s">
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G56" s="141" t="s">
+      <c r="G56" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="H56" s="140" t="s">
+      <c r="H56" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I56" s="138" t="s">
+      <c r="I56" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="138"/>
-      <c r="K56" s="138"/>
-      <c r="L56" s="137"/>
-      <c r="M56" s="141" t="s">
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N56" s="142"/>
-      <c r="O56" s="138" t="s">
+      <c r="N56" s="95"/>
+      <c r="O56" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="P56" s="138"/>
-      <c r="Q56" s="138"/>
-    </row>
-    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="105"/>
+    </row>
+    <row r="57" spans="1:17" ht="28">
+      <c r="B57" s="103"/>
       <c r="C57" s="10" t="s">
         <v>7</v>
       </c>
@@ -3490,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="J57" s="10"/>
-      <c r="K57" s="121" t="s">
+      <c r="K57" s="77" t="s">
         <v>8</v>
       </c>
       <c r="L57" s="14"/>
@@ -3506,169 +3804,181 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="25.5" customHeight="1">
       <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="127">
+      <c r="C58" s="83">
         <v>5700</v>
       </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="127">
+      <c r="E58" s="83">
         <v>2100</v>
       </c>
-      <c r="F58" s="124"/>
-      <c r="G58" s="127">
+      <c r="F58" s="80"/>
+      <c r="G58" s="83">
         <v>500</v>
       </c>
-      <c r="H58" s="124"/>
-      <c r="I58" s="128">
+      <c r="H58" s="80"/>
+      <c r="I58" s="84">
         <v>4000</v>
       </c>
-      <c r="J58" s="129"/>
-      <c r="K58" s="127">
+      <c r="J58" s="85"/>
+      <c r="K58" s="83">
         <v>0</v>
       </c>
-      <c r="L58" s="124"/>
-      <c r="M58" s="127">
+      <c r="L58" s="80"/>
+      <c r="M58" s="83">
         <v>7300</v>
       </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="127">
+      <c r="O58" s="83">
         <v>-2800</v>
       </c>
       <c r="P58" s="6"/>
-      <c r="Q58" s="127">
+      <c r="Q58" s="83">
         <v>-1200</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="25.5" customHeight="1">
       <c r="A59" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="130"/>
+      <c r="C59" s="86"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="132"/>
-      <c r="K59" s="130">
+      <c r="E59" s="86"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="86">
         <v>7300</v>
       </c>
-      <c r="L59" s="124"/>
-      <c r="M59" s="130">
+      <c r="L59" s="80"/>
+      <c r="M59" s="86">
         <v>-7300</v>
       </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="130"/>
+      <c r="O59" s="86"/>
       <c r="P59" s="6"/>
-      <c r="Q59" s="130"/>
-    </row>
-    <row r="60" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="86"/>
+    </row>
+    <row r="60" spans="1:17" ht="25.5" customHeight="1">
       <c r="A60" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="130"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="124"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="131"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="130">
+      <c r="E60" s="86"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="86">
         <v>-4000</v>
       </c>
-      <c r="L60" s="124"/>
-      <c r="M60" s="130"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="86"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="130">
+      <c r="O60" s="86">
         <v>2800</v>
       </c>
       <c r="P60" s="6"/>
-      <c r="Q60" s="130">
+      <c r="Q60" s="86">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="25.5" customHeight="1">
       <c r="A61" s="15"/>
       <c r="B61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="133">
+      <c r="C61" s="89">
         <f>SUM(C58,C59,C60)</f>
         <v>5700</v>
       </c>
       <c r="D61" s="19"/>
-      <c r="E61" s="133">
+      <c r="E61" s="89">
         <f>SUM(E58,E59,E60)</f>
         <v>2100</v>
       </c>
-      <c r="F61" s="124"/>
-      <c r="G61" s="133">
+      <c r="F61" s="80"/>
+      <c r="G61" s="89">
         <f>SUM(G58,G59,G60)</f>
         <v>500</v>
       </c>
-      <c r="H61" s="124"/>
-      <c r="I61" s="134">
+      <c r="H61" s="80"/>
+      <c r="I61" s="90">
         <f>SUM(I58,I59,I60)</f>
         <v>4000</v>
       </c>
-      <c r="J61" s="129"/>
-      <c r="K61" s="133">
+      <c r="J61" s="85"/>
+      <c r="K61" s="89">
         <f>SUM(K58,K59,K60)</f>
         <v>3300</v>
       </c>
-      <c r="L61" s="124"/>
-      <c r="M61" s="133">
+      <c r="L61" s="80"/>
+      <c r="M61" s="89">
         <f>SUM(M58,M59,M60)</f>
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
-      <c r="O61" s="133">
+      <c r="O61" s="89">
         <f>SUM(O58,O59,O60)</f>
         <v>0</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="133">
+      <c r="Q61" s="89">
         <f>SUM(Q58,Q59,Q60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="143"/>
+    <row r="62" spans="1:17" ht="9" customHeight="1">
+      <c r="C62" s="96"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="143"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="19"/>
-      <c r="G62" s="143"/>
+      <c r="G62" s="96"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="143"/>
+      <c r="I62" s="96"/>
       <c r="J62" s="19"/>
-      <c r="K62" s="143"/>
+      <c r="K62" s="96"/>
       <c r="L62" s="19"/>
-      <c r="M62" s="143"/>
+      <c r="M62" s="96"/>
       <c r="N62" s="19"/>
-      <c r="O62" s="143"/>
+      <c r="O62" s="96"/>
       <c r="P62" s="19"/>
-      <c r="Q62" s="143"/>
+      <c r="Q62" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="M55:Q55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="M30:Q30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="M39:Q39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="O40:Q40"/>
     <mergeCell ref="C47:E47"/>
     <mergeCell ref="I47:K47"/>
     <mergeCell ref="O47:Q47"/>
@@ -3676,33 +3986,21 @@
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="M39:Q39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="M30:Q30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="M55:Q55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="O56:Q56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3715,50 +4013,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="38.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B1" s="103"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="80"/>
-      <c r="C2" s="83" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+    </row>
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B2" s="103"/>
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
@@ -3768,24 +4066,24 @@
       <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
       <c r="L2" s="9"/>
       <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-    </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+    </row>
+    <row r="3" spans="1:17" ht="40.5" customHeight="1">
+      <c r="B3" s="103"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +4120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -3859,7 +4157,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3886,7 +4184,7 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -3915,7 +4213,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -3970,7 +4268,12 @@
     <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3978,1875 +4281,2163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="105" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107"/>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="108" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickBot="1">
+      <c r="A2" s="119"/>
+      <c r="B2" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="109"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="28" t="s">
+      <c r="H2" s="114"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="29" t="s">
+      <c r="L2" s="114"/>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="120"/>
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="30">
         <v>5000</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="33">
+      <c r="C4" s="30"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="30">
         <v>5000</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="30">
         <v>-3000</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33">
+      <c r="C5" s="30"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30">
         <v>-3000</v>
       </c>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="30">
         <v>1000</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33">
+      <c r="C6" s="30"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="30">
         <v>1000</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+    </row>
+    <row r="7" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="33">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="30">
         <v>1000</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
+      <c r="F7" s="116"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30">
         <v>-1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="30">
         <v>-1000</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="33">
+      <c r="C8" s="30"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="30">
         <v>-1000</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="F8" s="116"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30">
         <v>500</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33">
+      <c r="D9" s="116"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="30">
         <v>500</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="30">
         <v>500</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="30">
         <v>-500</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="D10" s="116"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30">
         <f>-J11</f>
         <v>1500</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33">
+      <c r="I11" s="31"/>
+      <c r="J11" s="30">
         <f>-SUM(J4:J10)</f>
         <v>-1500</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-    </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33">
         <f>-SUM(K12:L12)</f>
         <v>-4000</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36">
+      <c r="I12" s="34"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33">
         <f>-SUM(K4:K11)</f>
         <v>3000</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="33">
         <f>-SUM(L4:L11)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="35">
         <f>SUM(B4:B12)</f>
         <v>2500</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="35">
         <f>SUM(C4:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38">
+      <c r="D13" s="36"/>
+      <c r="E13" s="35">
         <f>SUM(E4:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="38">
+      <c r="F13" s="36"/>
+      <c r="G13" s="35">
         <f>SUM(G4:G12)</f>
         <v>5000</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="35">
         <f>SUM(H4:H12)</f>
         <v>-2500</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="I13" s="31"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="84" t="s">
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="86" t="s">
+      <c r="K18" s="130"/>
+      <c r="L18" s="131"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="122"/>
+      <c r="B19" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="132"/>
+      <c r="D19" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="78" t="s">
+      <c r="H19" s="133"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="88" t="s">
+      <c r="K19" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="89"/>
-    </row>
-    <row r="20" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="77" t="s">
+      <c r="L19" s="135"/>
+    </row>
+    <row r="20" spans="1:12" ht="30">
+      <c r="A20" s="123"/>
+      <c r="B20" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="77" t="s">
+      <c r="I20" s="127"/>
+      <c r="J20" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:12" ht="24" customHeight="1">
+      <c r="A21" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="60">
+      <c r="B21" s="57">
         <v>5000</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="60">
+      <c r="C21" s="57"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="57">
         <v>5000</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-    </row>
-    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="H21" s="57"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+    </row>
+    <row r="22" spans="1:12" ht="24" customHeight="1">
+      <c r="A22" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="57">
         <v>-3000</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63">
+      <c r="C22" s="57"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60">
         <v>-3000</v>
       </c>
-      <c r="L22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="L22" s="57"/>
+    </row>
+    <row r="23" spans="1:12" ht="24" customHeight="1">
+      <c r="A23" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="60">
+      <c r="B23" s="57">
         <v>1000</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="63">
+      <c r="C23" s="59"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="60">
         <v>1000</v>
       </c>
-      <c r="K23" s="63"/>
-      <c r="L23" s="60"/>
-    </row>
-    <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="K23" s="60"/>
+      <c r="L23" s="57"/>
+    </row>
+    <row r="24" spans="1:12" ht="24" customHeight="1">
+      <c r="A24" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="63">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="60">
         <v>1000</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="60">
+      <c r="F24" s="137"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="57">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+    <row r="25" spans="1:12" ht="24" customHeight="1">
+      <c r="A25" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="60">
+      <c r="B25" s="57">
         <v>-1000</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="63">
+      <c r="C25" s="57"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="60">
         <v>-1000</v>
       </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-    </row>
-    <row r="26" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="F25" s="137"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1">
+      <c r="A26" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57">
         <v>500</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="63">
+      <c r="D26" s="137"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="60">
         <v>500</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="60"/>
-    </row>
-    <row r="27" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="K26" s="62"/>
+      <c r="L26" s="57"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
+      <c r="A27" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="60">
+      <c r="B27" s="57">
         <v>500</v>
       </c>
-      <c r="C27" s="60">
+      <c r="C27" s="57">
         <v>-500</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-    </row>
-    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="D27" s="137"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+    </row>
+    <row r="28" spans="1:12" ht="24" customHeight="1">
+      <c r="A28" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60">
+      <c r="B28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57">
         <f>-J28</f>
         <v>1500</v>
       </c>
-      <c r="I28" s="102"/>
-      <c r="J28" s="60">
+      <c r="I28" s="127"/>
+      <c r="J28" s="57">
         <f>-SUM(J21:J27)</f>
         <v>-1500</v>
       </c>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-    </row>
-    <row r="29" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="72" t="s">
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="1:12" ht="24" customHeight="1" thickBot="1">
+      <c r="A29" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64">
         <f>-SUM(K29:L29)</f>
         <v>-4000</v>
       </c>
-      <c r="I29" s="103"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="69">
+      <c r="I29" s="128"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="66">
         <f>-SUM(K21:K28)</f>
         <v>3000</v>
       </c>
-      <c r="L29" s="69">
+      <c r="L29" s="66">
         <f>-SUM(L21:L28)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+    <row r="30" spans="1:12" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="67">
+      <c r="B30" s="64">
         <f>SUM(B21:B29)</f>
         <v>2500</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="64">
         <f>SUM(C21:C29)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="67">
+      <c r="D30" s="67"/>
+      <c r="E30" s="64">
         <f>SUM(E21:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="67">
+      <c r="F30" s="67"/>
+      <c r="G30" s="64">
         <f>SUM(G21:G29)</f>
         <v>5000</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="64">
         <f>SUM(H21:H29)</f>
         <v>-2500</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="31" spans="1:12" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D21:D29"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:I29"/>
+    <mergeCell ref="B1:H1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="D4:D12"/>
     <mergeCell ref="F4:F12"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:I29"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D21:D29"/>
-    <mergeCell ref="F21:F29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="84" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
-      <c r="B2" s="86" t="s">
+      <c r="K1" s="130"/>
+      <c r="L1" s="131"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="122"/>
+      <c r="B2" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="78" t="s">
+      <c r="H2" s="133"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="89"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="98"/>
-      <c r="B3" s="77" t="s">
+      <c r="L2" s="135"/>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="123"/>
+      <c r="B3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="57">
         <v>5000</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="60">
+      <c r="C4" s="57"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="57">
         <v>5000</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-    </row>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="57">
         <v>-3000</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63">
+      <c r="C5" s="57"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60">
         <v>-3000</v>
       </c>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+      <c r="L5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A6" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="57">
         <v>1000</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="63">
+      <c r="C6" s="59"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="60">
         <v>1000</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="63">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="60">
         <v>1000</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="60">
+      <c r="F7" s="137"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="57">
         <v>-1000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+    <row r="8" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="57">
         <v>-1000</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="63">
+      <c r="C8" s="57"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="60">
         <v>-1000</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-    </row>
-    <row r="9" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="F8" s="137"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+    </row>
+    <row r="9" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A9" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57">
         <v>500</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="63">
+      <c r="D9" s="137"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="60">
         <v>500</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="60"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A10" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="57">
         <v>500</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="57">
         <v>-500</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+    </row>
+    <row r="11" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60">
+      <c r="B11" s="59"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57">
         <f>-J11</f>
         <v>1500</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="60">
+      <c r="I11" s="127"/>
+      <c r="J11" s="57">
         <f>-SUM(J4:J10)</f>
         <v>-1500</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-    </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+    </row>
+    <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A12" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64">
         <f>-SUM(K12:L12)</f>
         <v>-4000</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="69">
+      <c r="I12" s="128"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="66">
         <f>-SUM(K4:K11)</f>
         <v>3000</v>
       </c>
-      <c r="L12" s="69">
+      <c r="L12" s="66">
         <f>-SUM(L4:L11)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+    <row r="13" spans="1:12" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="64">
         <f>SUM(B4:B12)</f>
         <v>2500</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="64">
         <f>SUM(C4:C12)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="67">
+      <c r="D13" s="67"/>
+      <c r="E13" s="64">
         <f>SUM(E4:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="67">
+      <c r="F13" s="67"/>
+      <c r="G13" s="64">
         <f>SUM(G4:G12)</f>
         <v>5000</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="64">
         <f>SUM(H4:H12)</f>
         <v>-2500</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="65"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" thickTop="1">
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="118" t="s">
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="113"/>
-      <c r="B17" s="119" t="s">
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" thickBot="1">
+      <c r="A17" s="143"/>
+      <c r="B17" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="146"/>
+      <c r="D17" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="119" t="s">
+      <c r="G17" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="56" t="s">
+      <c r="H17" s="146"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="119" t="s">
+      <c r="K17" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="119"/>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="113"/>
-      <c r="B18" s="57" t="s">
+      <c r="L17" s="146"/>
+    </row>
+    <row r="18" spans="1:12" ht="30">
+      <c r="A18" s="143"/>
+      <c r="B18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="57" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="57" t="s">
+      <c r="L18" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="46">
         <v>5000</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="49">
+      <c r="C19" s="46"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="46">
         <v>5000</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-    </row>
-    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="30">
         <v>-3000</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33">
+      <c r="C20" s="30"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30">
         <v>-3000</v>
       </c>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="L20" s="30"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="30">
         <v>1000</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="33">
+      <c r="C21" s="30"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="30">
         <v>1000</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A22" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="33">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="30">
         <v>1000</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33">
+      <c r="F22" s="116"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30">
         <v>-1000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="30">
         <v>-1000</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="33">
+      <c r="C23" s="30"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="30">
         <v>-1000</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="F23" s="116"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30">
         <v>500</v>
       </c>
-      <c r="D24" s="111"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33">
+      <c r="D24" s="116"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="30">
         <v>500</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A25" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="30">
         <v>500</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="30">
         <v>-500</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+    </row>
+    <row r="26" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30">
         <f>-J26</f>
         <v>1500</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33">
+      <c r="I26" s="31"/>
+      <c r="J26" s="30">
         <f>-SUM(J19:J25)</f>
         <v>-1500</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-    </row>
-    <row r="27" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+    </row>
+    <row r="27" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33">
         <f>-SUM(K27:L27)</f>
         <v>-4000</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36">
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33">
         <f>-SUM(K19:K26)</f>
         <v>3000</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="33">
         <f>-SUM(L19:L26)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A28" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="35">
         <f>SUM(B19:B27)</f>
         <v>2500</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="35">
         <f>SUM(C19:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38">
+      <c r="D28" s="36"/>
+      <c r="E28" s="35">
         <f>SUM(E19:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="38">
+      <c r="F28" s="36"/>
+      <c r="G28" s="35">
         <f>SUM(G19:G27)</f>
         <v>5000</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <f>SUM(H19:H27)</f>
         <v>-2500</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="114" t="s">
+      <c r="I28" s="31"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:12" ht="9" customHeight="1">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="115" t="s">
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1">
+      <c r="B32" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="140"/>
+      <c r="D32" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="41" t="s">
+      <c r="H32" s="140"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="115" t="s">
+      <c r="K32" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="115"/>
-    </row>
-    <row r="33" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="40" t="s">
+      <c r="L32" s="140"/>
+    </row>
+    <row r="33" spans="1:12" ht="30">
+      <c r="B33" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="40" t="s">
+      <c r="I33" s="22"/>
+      <c r="J33" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="40" t="s">
+      <c r="L33" s="37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="s">
+    <row r="34" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A34" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="35">
         <v>5000</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="38">
+      <c r="C34" s="35"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="35">
         <v>5000</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="H34" s="35"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A35" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="30">
         <v>-3000</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33">
+      <c r="C35" s="30"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30">
         <v>-3000</v>
       </c>
-      <c r="L35" s="33"/>
-    </row>
-    <row r="36" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A36" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="30">
         <v>1000</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33">
+      <c r="C36" s="30"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="30">
         <v>1000</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-    </row>
-    <row r="37" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="33">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="30">
         <v>1000</v>
       </c>
-      <c r="F37" s="111"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33">
+      <c r="F37" s="116"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30">
         <v>-1000</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+    <row r="38" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A38" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="30">
         <v>-1000</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="33">
+      <c r="C38" s="30"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="30">
         <v>-1000</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-    </row>
-    <row r="39" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="F38" s="116"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A39" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30">
         <v>500</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33">
+      <c r="D39" s="116"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="30">
         <v>500</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-    </row>
-    <row r="40" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="30">
         <v>500</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="30">
         <v>-500</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-    </row>
-    <row r="41" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="D40" s="116"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30">
         <f>-J41</f>
         <v>1500</v>
       </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33">
+      <c r="I41" s="31"/>
+      <c r="J41" s="30">
         <f>-SUM(J34:J40)</f>
         <v>-1500</v>
       </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-    </row>
-    <row r="42" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A42" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33">
         <f>-SUM(K42:L42)</f>
         <v>-4000</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36">
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33">
         <f>-SUM(K34:K41)</f>
         <v>3000</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="33">
         <f>-SUM(L34:L41)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A43" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="35">
         <f>SUM(B34:B42)</f>
         <v>2500</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="35">
         <f>SUM(C34:C42)</f>
         <v>0</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38">
+      <c r="D43" s="36"/>
+      <c r="E43" s="35">
         <f>SUM(E34:E42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="39"/>
-      <c r="G43" s="38">
+      <c r="F43" s="36"/>
+      <c r="G43" s="35">
         <f>SUM(G34:G42)</f>
         <v>5000</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="35">
         <f>SUM(H34:H42)</f>
         <v>-2500</v>
       </c>
-      <c r="I43" s="34"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="114" t="s">
+      <c r="I43" s="31"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="147"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="115" t="s">
+      <c r="K47" s="148"/>
+      <c r="L47" s="149"/>
+    </row>
+    <row r="48" spans="1:12" ht="16" thickBot="1">
+      <c r="B48" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="115"/>
-      <c r="D48" s="45" t="s">
+      <c r="C48" s="140"/>
+      <c r="D48" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="115" t="s">
+      <c r="G48" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="115"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="41" t="s">
+      <c r="H48" s="151"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="115" t="s">
+      <c r="K48" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="115"/>
-    </row>
-    <row r="49" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="L48" s="151"/>
+    </row>
+    <row r="49" spans="1:12" ht="30">
+      <c r="B49" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="25"/>
-      <c r="J49" s="40" t="s">
+      <c r="I49" s="22"/>
+      <c r="J49" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="40" t="s">
+      <c r="L49" s="154" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+    <row r="50" spans="1:12" ht="27" customHeight="1">
+      <c r="A50" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="35">
         <v>5000</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="38">
+      <c r="C50" s="35"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="35">
         <v>5000</v>
       </c>
-      <c r="H50" s="38"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-    </row>
-    <row r="51" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="H50" s="35"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+    </row>
+    <row r="51" spans="1:12" ht="27" customHeight="1">
+      <c r="A51" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="35">
         <v>-3000</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33">
+      <c r="C51" s="30"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30">
         <v>-3000</v>
       </c>
-      <c r="L51" s="33"/>
-    </row>
-    <row r="52" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" ht="27" customHeight="1">
+      <c r="A52" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="35">
         <v>1000</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="33">
+      <c r="C52" s="30"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="30">
         <v>1000</v>
       </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-    </row>
-    <row r="53" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" ht="27" customHeight="1">
+      <c r="A53" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="33">
+      <c r="B53" s="35"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="30">
         <v>1000</v>
       </c>
-      <c r="F53" s="111"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33">
+      <c r="F53" s="116"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30">
         <v>-1000</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+    <row r="54" spans="1:12" ht="27" customHeight="1">
+      <c r="A54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="35">
         <v>-1000</v>
       </c>
-      <c r="C54" s="33"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="33">
+      <c r="C54" s="30"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="30">
         <v>-1000</v>
       </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-    </row>
-    <row r="55" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="F54" s="116"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" ht="27" customHeight="1">
+      <c r="A55" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="33">
+      <c r="B55" s="35"/>
+      <c r="C55" s="30">
         <v>500</v>
       </c>
-      <c r="D55" s="111"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="33">
+      <c r="D55" s="116"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="30">
         <v>500</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-    </row>
-    <row r="56" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47" t="s">
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" ht="27" customHeight="1">
+      <c r="A56" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="35">
         <v>500</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="30">
         <v>-500</v>
       </c>
-      <c r="D56" s="111"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-    </row>
-    <row r="57" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="D56" s="116"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+    </row>
+    <row r="57" spans="1:12" ht="27" customHeight="1">
+      <c r="A57" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33">
+      <c r="B57" s="35"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30">
         <f>-J57</f>
         <v>1500</v>
       </c>
-      <c r="I57" s="117"/>
-      <c r="J57" s="33">
+      <c r="I57" s="142"/>
+      <c r="J57" s="30">
         <f>-SUM(J50:J56)</f>
         <v>-1500</v>
       </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="1:12" ht="27" customHeight="1" thickBot="1">
+      <c r="A58" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33">
         <f>-SUM(K58:L58)</f>
         <v>-4000</v>
       </c>
-      <c r="I58" s="117"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36">
+      <c r="I58" s="142"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33">
         <f>-SUM(K50:K57)</f>
         <v>3000</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="33">
         <f>-SUM(L50:L57)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+    <row r="59" spans="1:12" ht="27" customHeight="1">
+      <c r="A59" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="35">
         <f>SUM(B50:B58)</f>
         <v>2500</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="35">
         <f>SUM(C50:C58)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="38">
+      <c r="D59" s="141"/>
+      <c r="E59" s="35">
         <f>SUM(E50:E58)</f>
         <v>0</v>
       </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="38">
+      <c r="F59" s="36"/>
+      <c r="G59" s="35">
         <f>SUM(G50:G58)</f>
         <v>5000</v>
       </c>
-      <c r="H59" s="38">
+      <c r="H59" s="35">
         <f>SUM(H50:H58)</f>
         <v>-2500</v>
       </c>
-      <c r="I59" s="117"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+    </row>
+    <row r="63" spans="1:12" ht="16" customHeight="1">
+      <c r="B63" s="156"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
+      <c r="E63" s="157"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="159"/>
+      <c r="L63" s="160"/>
+    </row>
+    <row r="64" spans="1:12" ht="16" thickBot="1">
+      <c r="B64" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="166"/>
+      <c r="D64" s="161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="168" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" s="169"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="169"/>
+    </row>
+    <row r="65" spans="1:12" ht="30">
+      <c r="B65" s="162" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="163" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="163" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="22"/>
+      <c r="J65" s="162" t="s">
+        <v>12</v>
+      </c>
+      <c r="K65" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="27" customHeight="1">
+      <c r="A66" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="35">
+        <v>5000</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="35">
+        <v>5000</v>
+      </c>
+      <c r="H66" s="35"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+    </row>
+    <row r="67" spans="1:12" ht="27" customHeight="1">
+      <c r="A67" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="35">
+        <v>-3000</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="142"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30">
+        <v>-3000</v>
+      </c>
+      <c r="L67" s="30"/>
+    </row>
+    <row r="68" spans="1:12" ht="27" customHeight="1">
+      <c r="A68" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="35">
+        <v>1000</v>
+      </c>
+      <c r="C68" s="30"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="142"/>
+      <c r="J68" s="30">
+        <v>1000</v>
+      </c>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+    </row>
+    <row r="69" spans="1:12" ht="27" customHeight="1">
+      <c r="A69" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="30">
+        <v>1000</v>
+      </c>
+      <c r="F69" s="116"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="142"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="27" customHeight="1">
+      <c r="A70" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="35">
+        <v>-1000</v>
+      </c>
+      <c r="C70" s="30"/>
+      <c r="D70" s="116"/>
+      <c r="E70" s="30">
+        <v>-1000</v>
+      </c>
+      <c r="F70" s="116"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+    </row>
+    <row r="71" spans="1:12" ht="27" customHeight="1">
+      <c r="A71" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="30">
+        <v>500</v>
+      </c>
+      <c r="D71" s="116"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="30">
+        <v>500</v>
+      </c>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+    </row>
+    <row r="72" spans="1:12" ht="27" customHeight="1">
+      <c r="A72" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="35">
+        <v>500</v>
+      </c>
+      <c r="C72" s="30">
+        <v>-500</v>
+      </c>
+      <c r="D72" s="116"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+    </row>
+    <row r="73" spans="1:12" ht="27" customHeight="1">
+      <c r="A73" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30">
+        <f>-J73</f>
+        <v>1500</v>
+      </c>
+      <c r="I73" s="142"/>
+      <c r="J73" s="30">
+        <f>-SUM(J66:J72)</f>
+        <v>-1500</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+    </row>
+    <row r="74" spans="1:12" ht="27" customHeight="1" thickBot="1">
+      <c r="A74" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="116"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33">
+        <f>-SUM(K74:L74)</f>
+        <v>-4000</v>
+      </c>
+      <c r="I74" s="142"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33">
+        <f>-SUM(K66:K73)</f>
+        <v>3000</v>
+      </c>
+      <c r="L74" s="33">
+        <f>-SUM(L66:L73)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="27" customHeight="1">
+      <c r="A75" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="35">
+        <f>SUM(B66:B74)</f>
+        <v>2500</v>
+      </c>
+      <c r="C75" s="35">
+        <f>SUM(C66:C74)</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="141"/>
+      <c r="E75" s="35">
+        <f>SUM(E66:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="100"/>
+      <c r="G75" s="35">
+        <f>SUM(G66:G74)</f>
+        <v>5000</v>
+      </c>
+      <c r="H75" s="35">
+        <f>SUM(H66:H74)</f>
+        <v>-2500</v>
+      </c>
+      <c r="I75" s="142"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="F19:F27"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D4:D12"/>
-    <mergeCell ref="F4:F12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="F50:F58"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="I50:I59"/>
-    <mergeCell ref="I1:I12"/>
+  <mergeCells count="39">
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="D66:D75"/>
+    <mergeCell ref="F66:F74"/>
+    <mergeCell ref="I66:I75"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B47:H47"/>
@@ -5862,8 +6453,38 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="I50:I59"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="F19:F27"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D4:D12"/>
+    <mergeCell ref="F4:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I12"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="75" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/Grid UI/Options for RO.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/Grid UI/Options for RO.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Options RO" sheetId="1" r:id="rId1"/>
     <sheet name="Current Q" sheetId="4" r:id="rId2"/>
     <sheet name="Current RO" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Final 2 Options" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="38">
   <si>
     <t>Assets</t>
   </si>
@@ -129,6 +130,21 @@
   <si>
     <t>Common Stock</t>
   </si>
+  <si>
+    <t>Option 1: Presentation Mode</t>
+  </si>
+  <si>
+    <t>Option 1: Interactive Mode</t>
+  </si>
+  <si>
+    <t>Option 1: Alternate Color</t>
+  </si>
+  <si>
+    <t>Option 2: Presentation Mode</t>
+  </si>
+  <si>
+    <t>Option 2: Interactive Mode</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +260,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -307,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="77">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -1181,8 +1206,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59999389629810485"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="168">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1351,8 +1491,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1632,6 +1804,92 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="65" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="74" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="75" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="6" borderId="76" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="67" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="68" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="81" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1653,6 +1911,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="78" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="79" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,9 +2010,15 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="73" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,6 +2028,15 @@
     <xf numFmtId="37" fontId="8" fillId="7" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="71" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1764,40 +2046,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="69" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="70" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="71" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="73" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="74" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="75" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="76" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="72" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="14" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="14" fillId="5" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,18 +2055,6 @@
     <xf numFmtId="37" fontId="14" fillId="5" borderId="8" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="5" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="67" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="5" borderId="68" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1827,20 +2064,24 @@
     <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="5" borderId="2" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="14" fillId="5" borderId="13" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="14" fillId="5" borderId="14" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="5" borderId="66" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="5" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="168">
+  <cellStyles count="200">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1924,6 +2165,22 @@
     <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2007,6 +2264,22 @@
     <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="135"/>
   </cellStyles>
@@ -2355,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2374,60 +2647,65 @@
     <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B1" s="103"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="108" t="s">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A1" s="126"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-    </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B2" s="103"/>
-      <c r="C2" s="107" t="s">
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="128"/>
+    </row>
+    <row r="2" spans="1:18" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A2" s="129"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="103" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="L2" s="9"/>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="103" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-    </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1">
-      <c r="B3" s="103"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="130"/>
+    </row>
+    <row r="3" spans="1:18" ht="40.5" customHeight="1">
+      <c r="A3" s="129"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="131" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="14"/>
@@ -2463,9 +2741,10 @@
       <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A4" s="15"/>
+      <c r="R3" s="130"/>
+    </row>
+    <row r="4" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A4" s="132"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2476,11 +2755,11 @@
       <c r="E4" s="98">
         <v>2100</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="98">
         <v>500</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="98">
         <v>4000</v>
       </c>
@@ -2488,7 +2767,7 @@
       <c r="K4" s="98">
         <v>0</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="80"/>
       <c r="M4" s="98">
         <v>7300</v>
       </c>
@@ -2500,9 +2779,10 @@
       <c r="Q4" s="98">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="R4" s="130"/>
+    </row>
+    <row r="5" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A5" s="132" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2511,15 +2791,15 @@
       <c r="C5" s="98"/>
       <c r="D5" s="19"/>
       <c r="E5" s="98"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="98"/>
       <c r="J5" s="17"/>
       <c r="K5" s="98">
         <v>7300</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="98">
         <v>-7300</v>
       </c>
@@ -2527,9 +2807,10 @@
       <c r="O5" s="98"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="98"/>
-    </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="R5" s="130"/>
+    </row>
+    <row r="6" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A6" s="132" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2538,15 +2819,15 @@
       <c r="C6" s="98"/>
       <c r="D6" s="19"/>
       <c r="E6" s="98"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="98"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="98"/>
       <c r="J6" s="17"/>
       <c r="K6" s="98">
         <v>-4000</v>
       </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="98"/>
       <c r="N6" s="5"/>
       <c r="O6" s="98">
@@ -2556,9 +2837,10 @@
       <c r="Q6" s="98">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A7" s="15"/>
+      <c r="R6" s="130"/>
+    </row>
+    <row r="7" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A7" s="132"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -2571,12 +2853,12 @@
         <f>SUM(E4,E5,E6)</f>
         <v>2100</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="98">
         <f>SUM(G4,G5,G6)</f>
         <v>500</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="98">
         <f>SUM(I4,I5,I6)</f>
         <v>4000</v>
@@ -2586,7 +2868,7 @@
         <f>SUM(K4,K5,K6)</f>
         <v>3300</v>
       </c>
-      <c r="L7" s="20"/>
+      <c r="L7" s="80"/>
       <c r="M7" s="98">
         <f>SUM(M4,M5,M6)</f>
         <v>0</v>
@@ -2601,32 +2883,72 @@
         <f>SUM(Q4,Q5,Q6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
+      <c r="R7" s="130"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="129"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="130"/>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="138"/>
+    </row>
+    <row r="10" spans="1:18" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="108" t="s">
+      <c r="M10" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-    </row>
-    <row r="11" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C11" s="107" t="s">
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+    </row>
+    <row r="11" spans="1:18" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C11" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
       <c r="F11" s="8" t="s">
         <v>1</v>
       </c>
@@ -2636,23 +2958,23 @@
       <c r="H11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
       <c r="L11" s="9"/>
       <c r="M11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="7"/>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-    </row>
-    <row r="12" spans="1:17" ht="40.5" customHeight="1">
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+    </row>
+    <row r="12" spans="1:18" ht="40.5" customHeight="1">
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
@@ -2689,7 +3011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="24.75" customHeight="1">
+    <row r="13" spans="1:18" ht="24.75" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -2726,7 +3048,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="24.75" customHeight="1">
+    <row r="14" spans="1:18" ht="24.75" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -2753,7 +3075,7 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="99"/>
     </row>
-    <row r="15" spans="1:17" ht="24.75" customHeight="1">
+    <row r="15" spans="1:18" ht="24.75" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
@@ -2782,7 +3104,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="24.75" customHeight="1">
+    <row r="16" spans="1:18" ht="24.75" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -2828,30 +3150,30 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="108" t="s">
+      <c r="M19" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
     </row>
     <row r="20" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
       <c r="F20" s="8" t="s">
         <v>1</v>
       </c>
@@ -2861,21 +3183,21 @@
       <c r="H20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
       <c r="L20" s="9"/>
       <c r="M20" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="7"/>
-      <c r="O20" s="108" t="s">
+      <c r="O20" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
     </row>
     <row r="21" spans="1:17" ht="40.5" customHeight="1">
       <c r="C21" s="10" t="s">
@@ -3052,33 +3374,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16" thickBot="1">
-      <c r="B30" s="103"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
+    <row r="30" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B30" s="139"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="108" t="s">
+      <c r="M30" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-    </row>
-    <row r="31" spans="1:17" ht="16" thickBot="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="107" t="s">
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+    </row>
+    <row r="31" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B31" s="139"/>
+      <c r="C31" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="8" t="s">
         <v>1</v>
       </c>
@@ -3088,24 +3410,24 @@
       <c r="H31" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I31" s="108" t="s">
+      <c r="I31" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
       <c r="L31" s="9"/>
       <c r="M31" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="108" t="s">
+      <c r="O31" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-    </row>
-    <row r="32" spans="1:17" ht="28">
-      <c r="B32" s="103"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+    </row>
+    <row r="32" spans="1:17" ht="30">
+      <c r="B32" s="139"/>
       <c r="C32" s="10" t="s">
         <v>7</v>
       </c>
@@ -3280,33 +3602,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16" thickBot="1">
-      <c r="B39" s="103"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
+    <row r="39" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B39" s="139"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="108" t="s">
+      <c r="M39" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-    </row>
-    <row r="40" spans="1:17" ht="16" thickBot="1">
-      <c r="B40" s="103"/>
-      <c r="C40" s="107" t="s">
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B40" s="139"/>
+      <c r="C40" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
       <c r="F40" s="8" t="s">
         <v>1</v>
       </c>
@@ -3316,24 +3638,24 @@
       <c r="H40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="108" t="s">
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
       <c r="L40" s="9"/>
       <c r="M40" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="108" t="s">
+      <c r="O40" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-    </row>
-    <row r="41" spans="1:17" ht="28">
-      <c r="B41" s="103"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144"/>
+    </row>
+    <row r="41" spans="1:17" ht="30">
+      <c r="B41" s="139"/>
       <c r="C41" s="10" t="s">
         <v>7</v>
       </c>
@@ -3508,12 +3830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="16" thickBot="1">
-      <c r="C47" s="107" t="s">
+    <row r="47" spans="1:17" ht="16.5" thickBot="1">
+      <c r="C47" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
       <c r="F47" s="8" t="s">
         <v>1</v>
       </c>
@@ -3523,23 +3845,23 @@
       <c r="H47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
       <c r="L47" s="9"/>
       <c r="M47" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N47" s="7"/>
-      <c r="O47" s="108" t="s">
+      <c r="O47" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-    </row>
-    <row r="48" spans="1:17" ht="28">
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+    </row>
+    <row r="48" spans="1:17" ht="30">
       <c r="C48" s="10" t="s">
         <v>7</v>
       </c>
@@ -3714,33 +4036,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16" thickBot="1">
-      <c r="B55" s="103"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
+    <row r="55" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B55" s="139"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
       <c r="L55" s="92"/>
-      <c r="M55" s="105" t="s">
+      <c r="M55" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="105"/>
-      <c r="Q55" s="105"/>
-    </row>
-    <row r="56" spans="1:17" ht="16" thickBot="1">
-      <c r="B56" s="103"/>
-      <c r="C56" s="106" t="s">
+      <c r="N55" s="141"/>
+      <c r="O55" s="141"/>
+      <c r="P55" s="141"/>
+      <c r="Q55" s="141"/>
+    </row>
+    <row r="56" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B56" s="139"/>
+      <c r="C56" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
       <c r="F56" s="93" t="s">
         <v>1</v>
       </c>
@@ -3750,24 +4072,24 @@
       <c r="H56" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="I56" s="105" t="s">
+      <c r="I56" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="141"/>
       <c r="L56" s="92"/>
       <c r="M56" s="94" t="s">
         <v>5</v>
       </c>
       <c r="N56" s="95"/>
-      <c r="O56" s="105" t="s">
+      <c r="O56" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-    </row>
-    <row r="57" spans="1:17" ht="28">
-      <c r="B57" s="103"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
+    </row>
+    <row r="57" spans="1:17" ht="30">
+      <c r="B57" s="139"/>
       <c r="C57" s="10" t="s">
         <v>7</v>
       </c>
@@ -4031,32 +4353,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B1" s="103"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="108" t="s">
+      <c r="M1" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B2" s="103"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
@@ -4066,24 +4388,24 @@
       <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="L2" s="9"/>
       <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="7"/>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1">
-      <c r="B3" s="103"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
@@ -4294,29 +4616,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="129"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="168"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
-    </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="113" t="s">
+      <c r="K1" s="150"/>
+      <c r="L1" s="151"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A2" s="158"/>
+      <c r="B2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="152"/>
       <c r="D2" s="23" t="s">
         <v>1</v>
       </c>
@@ -4326,21 +4648,21 @@
       <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="114"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="22"/>
       <c r="J2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3" s="120"/>
+      <c r="L2" s="153"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="159"/>
       <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
@@ -4381,9 +4703,9 @@
         <v>5000</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="115"/>
+      <c r="D4" s="154"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="115"/>
+      <c r="F4" s="154"/>
       <c r="G4" s="30">
         <v>5000</v>
       </c>
@@ -4401,9 +4723,9 @@
         <v>-3000</v>
       </c>
       <c r="C5" s="30"/>
-      <c r="D5" s="116"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="116"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="31"/>
@@ -4421,9 +4743,9 @@
         <v>1000</v>
       </c>
       <c r="C6" s="30"/>
-      <c r="D6" s="116"/>
+      <c r="D6" s="155"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="116"/>
+      <c r="F6" s="155"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="31"/>
@@ -4439,11 +4761,11 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
-      <c r="D7" s="116"/>
+      <c r="D7" s="155"/>
       <c r="E7" s="30">
         <v>1000</v>
       </c>
-      <c r="F7" s="116"/>
+      <c r="F7" s="155"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
@@ -4461,11 +4783,11 @@
         <v>-1000</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="116"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="30">
         <v>-1000</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
@@ -4481,9 +4803,9 @@
       <c r="C9" s="30">
         <v>500</v>
       </c>
-      <c r="D9" s="116"/>
+      <c r="D9" s="155"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="116"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
@@ -4503,9 +4825,9 @@
       <c r="C10" s="30">
         <v>-500</v>
       </c>
-      <c r="D10" s="116"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="116"/>
+      <c r="F10" s="155"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
@@ -4519,9 +4841,9 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="116"/>
+      <c r="D11" s="155"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="116"/>
+      <c r="F11" s="155"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30">
         <f>-J11</f>
@@ -4541,9 +4863,9 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="117"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="33"/>
-      <c r="F12" s="117"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33">
         <f>-SUM(K12:L12)</f>
@@ -4592,29 +4914,29 @@
       <c r="L13" s="35"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="130" t="s">
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="130"/>
-      <c r="L18" s="131"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="170"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="122"/>
-      <c r="B19" s="132" t="s">
+      <c r="A19" s="161"/>
+      <c r="B19" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="132"/>
+      <c r="C19" s="171"/>
       <c r="D19" s="41" t="s">
         <v>1</v>
       </c>
@@ -4624,21 +4946,21 @@
       <c r="F19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="132" t="s">
+      <c r="G19" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="133"/>
-      <c r="I19" s="127"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="166"/>
       <c r="J19" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="134" t="s">
+      <c r="K19" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="135"/>
-    </row>
-    <row r="20" spans="1:12" ht="30">
-      <c r="A20" s="123"/>
+      <c r="L19" s="174"/>
+    </row>
+    <row r="20" spans="1:12" ht="31.5">
+      <c r="A20" s="162"/>
       <c r="B20" s="74" t="s">
         <v>7</v>
       </c>
@@ -4660,7 +4982,7 @@
       <c r="H20" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="166"/>
       <c r="J20" s="74" t="s">
         <v>12</v>
       </c>
@@ -4679,14 +5001,14 @@
         <v>5000</v>
       </c>
       <c r="C21" s="57"/>
-      <c r="D21" s="136"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="57"/>
-      <c r="F21" s="136"/>
+      <c r="F21" s="175"/>
       <c r="G21" s="57">
         <v>5000</v>
       </c>
       <c r="H21" s="57"/>
-      <c r="I21" s="127"/>
+      <c r="I21" s="166"/>
       <c r="J21" s="57"/>
       <c r="K21" s="57"/>
       <c r="L21" s="57"/>
@@ -4699,12 +5021,12 @@
         <v>-3000</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="137"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="59"/>
-      <c r="F22" s="137"/>
+      <c r="F22" s="176"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="127"/>
+      <c r="I22" s="166"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60">
         <v>-3000</v>
@@ -4719,12 +5041,12 @@
         <v>1000</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="137"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="60"/>
-      <c r="F23" s="137"/>
+      <c r="F23" s="176"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
-      <c r="I23" s="127"/>
+      <c r="I23" s="166"/>
       <c r="J23" s="60">
         <v>1000</v>
       </c>
@@ -4737,14 +5059,14 @@
       </c>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
-      <c r="D24" s="137"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="60">
         <v>1000</v>
       </c>
-      <c r="F24" s="137"/>
+      <c r="F24" s="176"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
-      <c r="I24" s="127"/>
+      <c r="I24" s="166"/>
       <c r="J24" s="60"/>
       <c r="K24" s="60"/>
       <c r="L24" s="57">
@@ -4759,14 +5081,14 @@
         <v>-1000</v>
       </c>
       <c r="C25" s="57"/>
-      <c r="D25" s="137"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="60">
         <v>-1000</v>
       </c>
-      <c r="F25" s="137"/>
+      <c r="F25" s="176"/>
       <c r="G25" s="57"/>
       <c r="H25" s="60"/>
-      <c r="I25" s="127"/>
+      <c r="I25" s="166"/>
       <c r="J25" s="60"/>
       <c r="K25" s="57"/>
       <c r="L25" s="57"/>
@@ -4779,12 +5101,12 @@
       <c r="C26" s="57">
         <v>500</v>
       </c>
-      <c r="D26" s="137"/>
+      <c r="D26" s="176"/>
       <c r="E26" s="60"/>
-      <c r="F26" s="137"/>
+      <c r="F26" s="176"/>
       <c r="G26" s="57"/>
       <c r="H26" s="60"/>
-      <c r="I26" s="127"/>
+      <c r="I26" s="166"/>
       <c r="J26" s="60">
         <v>500</v>
       </c>
@@ -4801,12 +5123,12 @@
       <c r="C27" s="57">
         <v>-500</v>
       </c>
-      <c r="D27" s="137"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="137"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="57"/>
       <c r="H27" s="57"/>
-      <c r="I27" s="127"/>
+      <c r="I27" s="166"/>
       <c r="J27" s="60"/>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -4817,15 +5139,15 @@
       </c>
       <c r="B28" s="59"/>
       <c r="C28" s="57"/>
-      <c r="D28" s="137"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="57"/>
-      <c r="F28" s="137"/>
+      <c r="F28" s="176"/>
       <c r="G28" s="57"/>
       <c r="H28" s="57">
         <f>-J28</f>
         <v>1500</v>
       </c>
-      <c r="I28" s="127"/>
+      <c r="I28" s="166"/>
       <c r="J28" s="57">
         <f>-SUM(J21:J27)</f>
         <v>-1500</v>
@@ -4839,15 +5161,15 @@
       </c>
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
-      <c r="D29" s="138"/>
+      <c r="D29" s="177"/>
       <c r="E29" s="64"/>
-      <c r="F29" s="138"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="64"/>
       <c r="H29" s="64">
         <f>-SUM(K29:L29)</f>
         <v>-4000</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="167"/>
       <c r="J29" s="64"/>
       <c r="K29" s="66">
         <f>-SUM(K21:K28)</f>
@@ -4889,7 +5211,7 @@
       <c r="K30" s="64"/>
       <c r="L30" s="64"/>
     </row>
-    <row r="31" spans="1:12" ht="16" thickTop="1"/>
+    <row r="31" spans="1:12" ht="16.5" thickTop="1"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="J18:L18"/>
@@ -4924,8 +5246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4937,29 +5259,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="130" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="131"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="122"/>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="41" t="s">
         <v>1</v>
       </c>
@@ -4969,21 +5291,21 @@
       <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="127"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="166"/>
       <c r="J2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="134" t="s">
+      <c r="K2" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="135"/>
-    </row>
-    <row r="3" spans="1:12" ht="30">
-      <c r="A3" s="123"/>
+      <c r="L2" s="174"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="162"/>
       <c r="B3" s="74" t="s">
         <v>7</v>
       </c>
@@ -5005,7 +5327,7 @@
       <c r="H3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="127"/>
+      <c r="I3" s="166"/>
       <c r="J3" s="74" t="s">
         <v>12</v>
       </c>
@@ -5024,14 +5346,14 @@
         <v>5000</v>
       </c>
       <c r="C4" s="57"/>
-      <c r="D4" s="136"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="57"/>
-      <c r="F4" s="136"/>
+      <c r="F4" s="175"/>
       <c r="G4" s="57">
         <v>5000</v>
       </c>
       <c r="H4" s="57"/>
-      <c r="I4" s="127"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
@@ -5044,12 +5366,12 @@
         <v>-3000</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="137"/>
+      <c r="D5" s="176"/>
       <c r="E5" s="59"/>
-      <c r="F5" s="137"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
-      <c r="I5" s="127"/>
+      <c r="I5" s="166"/>
       <c r="J5" s="60"/>
       <c r="K5" s="60">
         <v>-3000</v>
@@ -5064,12 +5386,12 @@
         <v>1000</v>
       </c>
       <c r="C6" s="59"/>
-      <c r="D6" s="137"/>
+      <c r="D6" s="176"/>
       <c r="E6" s="60"/>
-      <c r="F6" s="137"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
-      <c r="I6" s="127"/>
+      <c r="I6" s="166"/>
       <c r="J6" s="60">
         <v>1000</v>
       </c>
@@ -5082,14 +5404,14 @@
       </c>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
-      <c r="D7" s="137"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="60">
         <v>1000</v>
       </c>
-      <c r="F7" s="137"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
-      <c r="I7" s="127"/>
+      <c r="I7" s="166"/>
       <c r="J7" s="60"/>
       <c r="K7" s="60"/>
       <c r="L7" s="57">
@@ -5104,14 +5426,14 @@
         <v>-1000</v>
       </c>
       <c r="C8" s="57"/>
-      <c r="D8" s="137"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="60">
         <v>-1000</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="57"/>
       <c r="H8" s="60"/>
-      <c r="I8" s="127"/>
+      <c r="I8" s="166"/>
       <c r="J8" s="60"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
@@ -5124,12 +5446,12 @@
       <c r="C9" s="57">
         <v>500</v>
       </c>
-      <c r="D9" s="137"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="60"/>
-      <c r="F9" s="137"/>
+      <c r="F9" s="176"/>
       <c r="G9" s="57"/>
       <c r="H9" s="60"/>
-      <c r="I9" s="127"/>
+      <c r="I9" s="166"/>
       <c r="J9" s="60">
         <v>500</v>
       </c>
@@ -5146,12 +5468,12 @@
       <c r="C10" s="57">
         <v>-500</v>
       </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="60"/>
-      <c r="F10" s="137"/>
+      <c r="F10" s="176"/>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
-      <c r="I10" s="127"/>
+      <c r="I10" s="166"/>
       <c r="J10" s="60"/>
       <c r="K10" s="57"/>
       <c r="L10" s="57"/>
@@ -5162,15 +5484,15 @@
       </c>
       <c r="B11" s="59"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="137"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="57"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="57"/>
       <c r="H11" s="57">
         <f>-J11</f>
         <v>1500</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="166"/>
       <c r="J11" s="57">
         <f>-SUM(J4:J10)</f>
         <v>-1500</v>
@@ -5184,15 +5506,15 @@
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
-      <c r="D12" s="138"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="138"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="64"/>
       <c r="H12" s="64">
         <f>-SUM(K12:L12)</f>
         <v>-4000</v>
       </c>
-      <c r="I12" s="128"/>
+      <c r="I12" s="167"/>
       <c r="J12" s="64"/>
       <c r="K12" s="66">
         <f>-SUM(K4:K11)</f>
@@ -5234,34 +5556,34 @@
       <c r="K13" s="64"/>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickTop="1">
+    <row r="14" spans="1:12" ht="16.5" thickTop="1">
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
       <c r="I16" s="49"/>
-      <c r="J16" s="145" t="s">
+      <c r="J16" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
-      <c r="A17" s="143"/>
-      <c r="B17" s="146" t="s">
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A17" s="184"/>
+      <c r="B17" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="146"/>
+      <c r="C17" s="190"/>
       <c r="D17" s="50" t="s">
         <v>1</v>
       </c>
@@ -5271,21 +5593,21 @@
       <c r="F17" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="146" t="s">
+      <c r="G17" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="146"/>
+      <c r="H17" s="190"/>
       <c r="I17" s="49"/>
       <c r="J17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="146" t="s">
+      <c r="K17" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="146"/>
-    </row>
-    <row r="18" spans="1:12" ht="30">
-      <c r="A18" s="143"/>
+      <c r="L17" s="190"/>
+    </row>
+    <row r="18" spans="1:12" ht="31.5">
+      <c r="A18" s="184"/>
       <c r="B18" s="54" t="s">
         <v>7</v>
       </c>
@@ -5326,9 +5648,9 @@
         <v>5000</v>
       </c>
       <c r="C19" s="46"/>
-      <c r="D19" s="139"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="116"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="46">
         <v>5000</v>
       </c>
@@ -5346,9 +5668,9 @@
         <v>-3000</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="116"/>
+      <c r="D20" s="155"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="116"/>
+      <c r="F20" s="155"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
@@ -5366,9 +5688,9 @@
         <v>1000</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="116"/>
+      <c r="D21" s="155"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="116"/>
+      <c r="F21" s="155"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
@@ -5384,11 +5706,11 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="116"/>
+      <c r="D22" s="155"/>
       <c r="E22" s="30">
         <v>1000</v>
       </c>
-      <c r="F22" s="116"/>
+      <c r="F22" s="155"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
@@ -5406,11 +5728,11 @@
         <v>-1000</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="116"/>
+      <c r="D23" s="155"/>
       <c r="E23" s="30">
         <v>-1000</v>
       </c>
-      <c r="F23" s="116"/>
+      <c r="F23" s="155"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
@@ -5426,9 +5748,9 @@
       <c r="C24" s="30">
         <v>500</v>
       </c>
-      <c r="D24" s="116"/>
+      <c r="D24" s="155"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="116"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="31"/>
@@ -5448,9 +5770,9 @@
       <c r="C25" s="30">
         <v>-500</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="155"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="116"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="31"/>
@@ -5464,9 +5786,9 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="116"/>
+      <c r="D26" s="155"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="116"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30">
         <f>-J26</f>
@@ -5486,9 +5808,9 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="117"/>
+      <c r="D27" s="156"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="117"/>
+      <c r="F27" s="156"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33">
         <f>-SUM(K27:L27)</f>
@@ -5551,25 +5873,25 @@
       <c r="L29" s="55"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
       <c r="I31" s="22"/>
-      <c r="J31" s="144" t="s">
+      <c r="J31" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-    </row>
-    <row r="32" spans="1:12" ht="16" thickBot="1">
-      <c r="B32" s="140" t="s">
+      <c r="K31" s="188"/>
+      <c r="L31" s="188"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B32" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="140"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="42" t="s">
         <v>1</v>
       </c>
@@ -5579,20 +5901,20 @@
       <c r="F32" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="140" t="s">
+      <c r="G32" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="140"/>
+      <c r="H32" s="180"/>
       <c r="I32" s="22"/>
       <c r="J32" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="140" t="s">
+      <c r="K32" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="L32" s="140"/>
-    </row>
-    <row r="33" spans="1:12" ht="30">
+      <c r="L32" s="180"/>
+    </row>
+    <row r="33" spans="1:12" ht="31.5">
       <c r="B33" s="37" t="s">
         <v>7</v>
       </c>
@@ -5633,9 +5955,9 @@
         <v>5000</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="116"/>
+      <c r="D34" s="155"/>
       <c r="E34" s="35"/>
-      <c r="F34" s="116"/>
+      <c r="F34" s="155"/>
       <c r="G34" s="35">
         <v>5000</v>
       </c>
@@ -5653,9 +5975,9 @@
         <v>-3000</v>
       </c>
       <c r="C35" s="30"/>
-      <c r="D35" s="116"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="116"/>
+      <c r="F35" s="155"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -5673,9 +5995,9 @@
         <v>1000</v>
       </c>
       <c r="C36" s="30"/>
-      <c r="D36" s="116"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="30"/>
-      <c r="F36" s="116"/>
+      <c r="F36" s="155"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
@@ -5691,11 +6013,11 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
-      <c r="D37" s="116"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="30">
         <v>1000</v>
       </c>
-      <c r="F37" s="116"/>
+      <c r="F37" s="155"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
@@ -5713,11 +6035,11 @@
         <v>-1000</v>
       </c>
       <c r="C38" s="30"/>
-      <c r="D38" s="116"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="30">
         <v>-1000</v>
       </c>
-      <c r="F38" s="116"/>
+      <c r="F38" s="155"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
@@ -5733,9 +6055,9 @@
       <c r="C39" s="30">
         <v>500</v>
       </c>
-      <c r="D39" s="116"/>
+      <c r="D39" s="155"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="116"/>
+      <c r="F39" s="155"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
@@ -5755,9 +6077,9 @@
       <c r="C40" s="30">
         <v>-500</v>
       </c>
-      <c r="D40" s="116"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="30"/>
-      <c r="F40" s="116"/>
+      <c r="F40" s="155"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
@@ -5771,9 +6093,9 @@
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="116"/>
+      <c r="D41" s="155"/>
       <c r="E41" s="30"/>
-      <c r="F41" s="116"/>
+      <c r="F41" s="155"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30">
         <f>-J41</f>
@@ -5793,9 +6115,9 @@
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="117"/>
+      <c r="D42" s="156"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="117"/>
+      <c r="F42" s="156"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33">
         <f>-SUM(K42:L42)</f>
@@ -5844,25 +6166,25 @@
       <c r="L43" s="35"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="B47" s="147"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="149"/>
+      <c r="B47" s="185"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="H47" s="187"/>
       <c r="I47" s="22"/>
-      <c r="J47" s="147" t="s">
+      <c r="J47" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="148"/>
-      <c r="L47" s="149"/>
-    </row>
-    <row r="48" spans="1:12" ht="16" thickBot="1">
-      <c r="B48" s="150" t="s">
+      <c r="K47" s="186"/>
+      <c r="L47" s="187"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B48" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="140"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="42" t="s">
         <v>1</v>
       </c>
@@ -5872,49 +6194,49 @@
       <c r="F48" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="140" t="s">
+      <c r="G48" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="151"/>
+      <c r="H48" s="181"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="155" t="s">
+      <c r="J48" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="140" t="s">
+      <c r="K48" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="151"/>
-    </row>
-    <row r="49" spans="1:12" ht="30">
-      <c r="B49" s="152" t="s">
+      <c r="L48" s="181"/>
+    </row>
+    <row r="49" spans="1:12" ht="31.5">
+      <c r="B49" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="153" t="s">
+      <c r="C49" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="153" t="s">
+      <c r="D49" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="153" t="s">
+      <c r="E49" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="153" t="s">
+      <c r="F49" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="153" t="s">
+      <c r="G49" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="154" t="s">
+      <c r="H49" s="106" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="22"/>
-      <c r="J49" s="152" t="s">
+      <c r="J49" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="K49" s="153" t="s">
+      <c r="K49" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="154" t="s">
+      <c r="L49" s="106" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5926,14 +6248,14 @@
         <v>5000</v>
       </c>
       <c r="C50" s="35"/>
-      <c r="D50" s="116"/>
+      <c r="D50" s="155"/>
       <c r="E50" s="35"/>
-      <c r="F50" s="116"/>
+      <c r="F50" s="155"/>
       <c r="G50" s="35">
         <v>5000</v>
       </c>
       <c r="H50" s="35"/>
-      <c r="I50" s="142"/>
+      <c r="I50" s="183"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -5946,12 +6268,12 @@
         <v>-3000</v>
       </c>
       <c r="C51" s="30"/>
-      <c r="D51" s="116"/>
+      <c r="D51" s="155"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="116"/>
+      <c r="F51" s="155"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
-      <c r="I51" s="142"/>
+      <c r="I51" s="183"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30">
         <v>-3000</v>
@@ -5966,12 +6288,12 @@
         <v>1000</v>
       </c>
       <c r="C52" s="30"/>
-      <c r="D52" s="116"/>
+      <c r="D52" s="155"/>
       <c r="E52" s="30"/>
-      <c r="F52" s="116"/>
+      <c r="F52" s="155"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
-      <c r="I52" s="142"/>
+      <c r="I52" s="183"/>
       <c r="J52" s="30">
         <v>1000</v>
       </c>
@@ -5984,14 +6306,14 @@
       </c>
       <c r="B53" s="35"/>
       <c r="C53" s="30"/>
-      <c r="D53" s="116"/>
+      <c r="D53" s="155"/>
       <c r="E53" s="30">
         <v>1000</v>
       </c>
-      <c r="F53" s="116"/>
+      <c r="F53" s="155"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
-      <c r="I53" s="142"/>
+      <c r="I53" s="183"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30">
@@ -6006,14 +6328,14 @@
         <v>-1000</v>
       </c>
       <c r="C54" s="30"/>
-      <c r="D54" s="116"/>
+      <c r="D54" s="155"/>
       <c r="E54" s="30">
         <v>-1000</v>
       </c>
-      <c r="F54" s="116"/>
+      <c r="F54" s="155"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
-      <c r="I54" s="142"/>
+      <c r="I54" s="183"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
       <c r="L54" s="30"/>
@@ -6026,12 +6348,12 @@
       <c r="C55" s="30">
         <v>500</v>
       </c>
-      <c r="D55" s="116"/>
+      <c r="D55" s="155"/>
       <c r="E55" s="30"/>
-      <c r="F55" s="116"/>
+      <c r="F55" s="155"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
-      <c r="I55" s="142"/>
+      <c r="I55" s="183"/>
       <c r="J55" s="30">
         <v>500</v>
       </c>
@@ -6048,12 +6370,12 @@
       <c r="C56" s="30">
         <v>-500</v>
       </c>
-      <c r="D56" s="116"/>
+      <c r="D56" s="155"/>
       <c r="E56" s="30"/>
-      <c r="F56" s="116"/>
+      <c r="F56" s="155"/>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
-      <c r="I56" s="142"/>
+      <c r="I56" s="183"/>
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
       <c r="L56" s="30"/>
@@ -6064,15 +6386,15 @@
       </c>
       <c r="B57" s="35"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="116"/>
+      <c r="D57" s="155"/>
       <c r="E57" s="30"/>
-      <c r="F57" s="116"/>
+      <c r="F57" s="155"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30">
         <f>-J57</f>
         <v>1500</v>
       </c>
-      <c r="I57" s="142"/>
+      <c r="I57" s="183"/>
       <c r="J57" s="30">
         <f>-SUM(J50:J56)</f>
         <v>-1500</v>
@@ -6086,15 +6408,15 @@
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
-      <c r="D58" s="116"/>
+      <c r="D58" s="155"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="117"/>
+      <c r="F58" s="156"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33">
         <f>-SUM(K58:L58)</f>
         <v>-4000</v>
       </c>
-      <c r="I58" s="142"/>
+      <c r="I58" s="183"/>
       <c r="J58" s="33"/>
       <c r="K58" s="33">
         <f>-SUM(K50:K57)</f>
@@ -6117,7 +6439,7 @@
         <f>SUM(C50:C58)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="141"/>
+      <c r="D59" s="182"/>
       <c r="E59" s="35">
         <f>SUM(E50:E58)</f>
         <v>0</v>
@@ -6131,83 +6453,83 @@
         <f>SUM(H50:H58)</f>
         <v>-2500</v>
       </c>
-      <c r="I59" s="142"/>
+      <c r="I59" s="183"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
     </row>
     <row r="63" spans="1:12" ht="16" customHeight="1">
-      <c r="B63" s="156"/>
-      <c r="C63" s="157"/>
-      <c r="D63" s="157"/>
-      <c r="E63" s="157"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="158"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="110"/>
       <c r="I63" s="22"/>
-      <c r="J63" s="171" t="s">
+      <c r="J63" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="159"/>
-      <c r="L63" s="160"/>
-    </row>
-    <row r="64" spans="1:12" ht="16" thickBot="1">
-      <c r="B64" s="165" t="s">
+      <c r="K63" s="192"/>
+      <c r="L63" s="193"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" thickBot="1">
+      <c r="B64" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="166"/>
-      <c r="D64" s="161" t="s">
+      <c r="C64" s="195"/>
+      <c r="D64" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="167" t="s">
+      <c r="E64" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="161" t="s">
+      <c r="F64" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="168" t="s">
+      <c r="G64" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="169"/>
+      <c r="H64" s="197"/>
       <c r="I64" s="22"/>
-      <c r="J64" s="170" t="s">
+      <c r="J64" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="K64" s="168" t="s">
+      <c r="K64" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="169"/>
-    </row>
-    <row r="65" spans="1:12" ht="30">
-      <c r="B65" s="162" t="s">
+      <c r="L64" s="197"/>
+    </row>
+    <row r="65" spans="1:12" ht="31.5">
+      <c r="B65" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="163" t="s">
+      <c r="C65" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="163" t="s">
+      <c r="D65" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E65" s="163" t="s">
+      <c r="E65" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="163" t="s">
+      <c r="F65" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="163" t="s">
+      <c r="G65" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="164" t="s">
+      <c r="H65" s="114" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="22"/>
-      <c r="J65" s="162" t="s">
+      <c r="J65" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="K65" s="163" t="s">
+      <c r="K65" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="L65" s="164" t="s">
+      <c r="L65" s="114" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6219,14 +6541,14 @@
         <v>5000</v>
       </c>
       <c r="C66" s="35"/>
-      <c r="D66" s="116"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="35"/>
-      <c r="F66" s="116"/>
+      <c r="F66" s="155"/>
       <c r="G66" s="35">
         <v>5000</v>
       </c>
       <c r="H66" s="35"/>
-      <c r="I66" s="142"/>
+      <c r="I66" s="183"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="35"/>
@@ -6239,12 +6561,12 @@
         <v>-3000</v>
       </c>
       <c r="C67" s="30"/>
-      <c r="D67" s="116"/>
+      <c r="D67" s="155"/>
       <c r="E67" s="30"/>
-      <c r="F67" s="116"/>
+      <c r="F67" s="155"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
-      <c r="I67" s="142"/>
+      <c r="I67" s="183"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30">
         <v>-3000</v>
@@ -6259,12 +6581,12 @@
         <v>1000</v>
       </c>
       <c r="C68" s="30"/>
-      <c r="D68" s="116"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="30"/>
-      <c r="F68" s="116"/>
+      <c r="F68" s="155"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
-      <c r="I68" s="142"/>
+      <c r="I68" s="183"/>
       <c r="J68" s="30">
         <v>1000</v>
       </c>
@@ -6277,14 +6599,14 @@
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="30"/>
-      <c r="D69" s="116"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="30">
         <v>1000</v>
       </c>
-      <c r="F69" s="116"/>
+      <c r="F69" s="155"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
-      <c r="I69" s="142"/>
+      <c r="I69" s="183"/>
       <c r="J69" s="30"/>
       <c r="K69" s="30"/>
       <c r="L69" s="30">
@@ -6299,14 +6621,14 @@
         <v>-1000</v>
       </c>
       <c r="C70" s="30"/>
-      <c r="D70" s="116"/>
+      <c r="D70" s="155"/>
       <c r="E70" s="30">
         <v>-1000</v>
       </c>
-      <c r="F70" s="116"/>
+      <c r="F70" s="155"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
-      <c r="I70" s="142"/>
+      <c r="I70" s="183"/>
       <c r="J70" s="30"/>
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
@@ -6319,12 +6641,12 @@
       <c r="C71" s="30">
         <v>500</v>
       </c>
-      <c r="D71" s="116"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="30"/>
-      <c r="F71" s="116"/>
+      <c r="F71" s="155"/>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
-      <c r="I71" s="142"/>
+      <c r="I71" s="183"/>
       <c r="J71" s="30">
         <v>500</v>
       </c>
@@ -6341,12 +6663,12 @@
       <c r="C72" s="30">
         <v>-500</v>
       </c>
-      <c r="D72" s="116"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="30"/>
-      <c r="F72" s="116"/>
+      <c r="F72" s="155"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
-      <c r="I72" s="142"/>
+      <c r="I72" s="183"/>
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
       <c r="L72" s="30"/>
@@ -6357,15 +6679,15 @@
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="30"/>
-      <c r="D73" s="116"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="30"/>
-      <c r="F73" s="116"/>
+      <c r="F73" s="155"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30">
         <f>-J73</f>
         <v>1500</v>
       </c>
-      <c r="I73" s="142"/>
+      <c r="I73" s="183"/>
       <c r="J73" s="30">
         <f>-SUM(J66:J72)</f>
         <v>-1500</v>
@@ -6379,15 +6701,15 @@
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
-      <c r="D74" s="116"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="117"/>
+      <c r="F74" s="156"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33">
         <f>-SUM(K74:L74)</f>
         <v>-4000</v>
       </c>
-      <c r="I74" s="142"/>
+      <c r="I74" s="183"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33">
         <f>-SUM(K66:K73)</f>
@@ -6410,7 +6732,7 @@
         <f>SUM(C66:C74)</f>
         <v>0</v>
       </c>
-      <c r="D75" s="141"/>
+      <c r="D75" s="182"/>
       <c r="E75" s="35">
         <f>SUM(E66:E74)</f>
         <v>0</v>
@@ -6424,7 +6746,7 @@
         <f>SUM(H66:H74)</f>
         <v>-2500</v>
       </c>
-      <c r="I75" s="142"/>
+      <c r="I75" s="183"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="35"/>
@@ -6487,4 +6809,1406 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AD33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22:AD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
+    <col min="19" max="19" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:30" ht="20">
+      <c r="S2" s="199" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="20">
+      <c r="A3" s="199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="186"/>
+      <c r="AD4" s="187"/>
+    </row>
+    <row r="5" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="1"/>
+      <c r="T5" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="180"/>
+      <c r="V5" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="180" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="180" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="181"/>
+    </row>
+    <row r="6" spans="1:30" ht="40.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="198"/>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1"/>
+      <c r="T6" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD6" s="106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="200">
+        <v>5700</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="200">
+        <v>2100</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="200">
+        <v>500</v>
+      </c>
+      <c r="H7" s="80"/>
+      <c r="I7" s="200">
+        <v>4000</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="200">
+        <v>0</v>
+      </c>
+      <c r="L7" s="80"/>
+      <c r="M7" s="200">
+        <v>7300</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="200">
+        <v>-2800</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="200">
+        <v>-1200</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="35">
+        <v>5000</v>
+      </c>
+      <c r="U7" s="35"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="155"/>
+      <c r="Y7" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="183"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+    </row>
+    <row r="8" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="201"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="201">
+        <v>7300</v>
+      </c>
+      <c r="L8" s="80"/>
+      <c r="M8" s="201">
+        <v>-7300</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="35">
+        <v>-3000</v>
+      </c>
+      <c r="U8" s="30"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30">
+        <v>-3000</v>
+      </c>
+      <c r="AD8" s="30"/>
+    </row>
+    <row r="9" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="201"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="201">
+        <v>-4000</v>
+      </c>
+      <c r="L9" s="80"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="201">
+        <v>2800</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="201">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="35">
+        <v>1000</v>
+      </c>
+      <c r="U9" s="30"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+    </row>
+    <row r="10" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="201">
+        <f>SUM(C7,C8,C9)</f>
+        <v>5700</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="201">
+        <f>SUM(E7,E8,E9)</f>
+        <v>2100</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="G10" s="201">
+        <f>SUM(G7,G8,G9)</f>
+        <v>500</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="201">
+        <f>SUM(I7,I8,I9)</f>
+        <v>4000</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="201">
+        <f>SUM(K7,K8,K9)</f>
+        <v>3300</v>
+      </c>
+      <c r="L10" s="80"/>
+      <c r="M10" s="201">
+        <f>SUM(M7,M8,M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="201">
+        <f>SUM(O7,O8,O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="201">
+        <f>SUM(Q7,Q8,Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="30">
+        <v>1000</v>
+      </c>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="1"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="35">
+        <v>-1000</v>
+      </c>
+      <c r="U11" s="30"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="30">
+        <v>-1000</v>
+      </c>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="1"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="35"/>
+      <c r="U12" s="30">
+        <v>500</v>
+      </c>
+      <c r="V12" s="155"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="30">
+        <v>500</v>
+      </c>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="1"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="35">
+        <v>500</v>
+      </c>
+      <c r="U13" s="30">
+        <v>-500</v>
+      </c>
+      <c r="V13" s="155"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+    </row>
+    <row r="14" spans="1:30" ht="20">
+      <c r="A14" s="199" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="133"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30">
+        <f>-AB14</f>
+        <v>1500</v>
+      </c>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="30">
+        <f>-SUM(AB7:AB13)</f>
+        <v>-1500</v>
+      </c>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+    </row>
+    <row r="15" spans="1:30" ht="16" thickBot="1">
+      <c r="S15" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33">
+        <f>-SUM(AC15:AD15)</f>
+        <v>-4000</v>
+      </c>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33">
+        <f>-SUM(AC7:AC14)</f>
+        <v>3000</v>
+      </c>
+      <c r="AD15" s="33">
+        <f>-SUM(AD7:AD14)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="16" thickBot="1">
+      <c r="B16" s="139"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="S16" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="T16" s="35">
+        <f>SUM(T7:T15)</f>
+        <v>2500</v>
+      </c>
+      <c r="U16" s="35">
+        <f>SUM(U7:U15)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="182"/>
+      <c r="W16" s="35">
+        <f>SUM(W7:W15)</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="123"/>
+      <c r="Y16" s="35">
+        <f>SUM(Y7:Y15)</f>
+        <v>5000</v>
+      </c>
+      <c r="Z16" s="35">
+        <f>SUM(Z7:Z15)</f>
+        <v>-2500</v>
+      </c>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+    </row>
+    <row r="17" spans="1:30" ht="16" thickBot="1">
+      <c r="B17" s="139"/>
+      <c r="C17" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" ht="28">
+      <c r="B18" s="139"/>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="24" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="78">
+        <v>5700</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="79">
+        <v>2100</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="79">
+        <v>500</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="78">
+        <v>4000</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="78">
+        <v>0</v>
+      </c>
+      <c r="L19" s="80"/>
+      <c r="M19" s="78">
+        <v>7300</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="78">
+        <v>-2800</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="78">
+        <v>-1200</v>
+      </c>
+      <c r="S19" s="199" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" ht="24" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="82">
+        <v>7300</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="82">
+        <v>-7300</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="82"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" ht="24" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="78"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="82">
+        <v>-4000</v>
+      </c>
+      <c r="L21" s="80"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="82">
+        <v>2800</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="82">
+        <v>1200</v>
+      </c>
+      <c r="T21" s="108"/>
+      <c r="U21" s="109"/>
+      <c r="V21" s="109"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="191" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="193"/>
+    </row>
+    <row r="22" spans="1:30" ht="31" customHeight="1" thickBot="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="82">
+        <f>SUM(C19,C20,C21)</f>
+        <v>5700</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="82">
+        <f>SUM(E19,E20,E21)</f>
+        <v>2100</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="78">
+        <f>SUM(G19,G20,G21)</f>
+        <v>500</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="I22" s="78">
+        <f>SUM(I19,I20,I21)</f>
+        <v>4000</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="82">
+        <f>SUM(K19,K20,K21)</f>
+        <v>3300</v>
+      </c>
+      <c r="L22" s="80"/>
+      <c r="M22" s="82">
+        <f>SUM(M19,M20,M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="82">
+        <f>SUM(O19,O20,O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="82">
+        <f>SUM(Q19,Q20,Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="121"/>
+      <c r="V22" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="197"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="197"/>
+    </row>
+    <row r="23" spans="1:30" ht="30">
+      <c r="T23" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="V23" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD23" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="S24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="35">
+        <v>5000</v>
+      </c>
+      <c r="U24" s="35"/>
+      <c r="V24" s="202"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="S25" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="35">
+        <v>-3000</v>
+      </c>
+      <c r="U25" s="30"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30">
+        <v>-3000</v>
+      </c>
+      <c r="AD25" s="30"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="S26" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="T26" s="35">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="30"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="124"/>
+      <c r="AB26" s="30">
+        <v>1000</v>
+      </c>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+    </row>
+    <row r="27" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A27" s="199" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="144"/>
+      <c r="S27" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="35"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="30">
+        <v>1000</v>
+      </c>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="124"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="22.5" customHeight="1" thickBot="1">
+      <c r="C28" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="144" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
+      <c r="S28" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="35">
+        <v>-1000</v>
+      </c>
+      <c r="U28" s="30"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="30">
+        <v>-1000</v>
+      </c>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="124"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+    </row>
+    <row r="29" spans="1:30" ht="40.5" customHeight="1">
+      <c r="C29" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="35"/>
+      <c r="U29" s="30">
+        <v>500</v>
+      </c>
+      <c r="V29" s="118"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="30">
+        <v>500</v>
+      </c>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+    </row>
+    <row r="30" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="99">
+        <v>5700</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="99">
+        <v>2100</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="99">
+        <v>500</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="99">
+        <v>4000</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="99">
+        <v>0</v>
+      </c>
+      <c r="L30" s="20"/>
+      <c r="M30" s="99">
+        <v>7300</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="99">
+        <v>-2800</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="99">
+        <v>-1200</v>
+      </c>
+      <c r="S30" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T30" s="35">
+        <v>500</v>
+      </c>
+      <c r="U30" s="30">
+        <v>-500</v>
+      </c>
+      <c r="V30" s="118"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="124"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+    </row>
+    <row r="31" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="99"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="99">
+        <v>7300</v>
+      </c>
+      <c r="L31" s="20"/>
+      <c r="M31" s="99">
+        <v>-7300</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="99"/>
+      <c r="S31" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="35"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30">
+        <f>-AB31</f>
+        <v>1500</v>
+      </c>
+      <c r="AA31" s="124"/>
+      <c r="AB31" s="30">
+        <f>-SUM(AB24:AB30)</f>
+        <v>-1500</v>
+      </c>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+    </row>
+    <row r="32" spans="1:30" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="99">
+        <v>-4000</v>
+      </c>
+      <c r="L32" s="20"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="99">
+        <v>2800</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="99">
+        <v>1200</v>
+      </c>
+      <c r="S32" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33">
+        <f>-SUM(AC32:AD32)</f>
+        <v>-4000</v>
+      </c>
+      <c r="AA32" s="124"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33">
+        <f>-SUM(AC24:AC31)</f>
+        <v>3000</v>
+      </c>
+      <c r="AD32" s="33">
+        <f>-SUM(AD24:AD31)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="24.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="99">
+        <f>SUM(C30,C31,C32)</f>
+        <v>5700</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="99">
+        <f>SUM(E30,E31,E32)</f>
+        <v>2100</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="99">
+        <f>SUM(G30,G31,G32)</f>
+        <v>500</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="99">
+        <f>SUM(I30,I31,I32)</f>
+        <v>4000</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="99">
+        <f>SUM(K30,K31,K32)</f>
+        <v>3300</v>
+      </c>
+      <c r="L33" s="20"/>
+      <c r="M33" s="99">
+        <f>SUM(M30,M31,M32)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="99">
+        <f>SUM(O30,O31,O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="99">
+        <f>SUM(Q30,Q31,Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="35">
+        <f>SUM(T24:T32)</f>
+        <v>2500</v>
+      </c>
+      <c r="U33" s="35">
+        <f>SUM(U24:U32)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="123"/>
+      <c r="W33" s="35">
+        <f>SUM(W24:W32)</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="35">
+        <f>SUM(Y24:Y32)</f>
+        <v>5000</v>
+      </c>
+      <c r="Z33" s="35">
+        <f>SUM(Z24:Z32)</f>
+        <v>-2500</v>
+      </c>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AA7:AA16"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AC22:AD22"/>
+    <mergeCell ref="T4:Z4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="V7:V16"/>
+    <mergeCell ref="X7:X15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="O5:Q5"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="53" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="18" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>